--- a/Raw Data/MO/corn_irrigated_c_summary_2014.xlsx
+++ b/Raw Data/MO/corn_irrigated_c_summary_2014.xlsx
@@ -1,47 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\GitHub\Premium\Raw Data\MO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="22755" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="REGIONALsummary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
-  <si>
-    <t>GRAND MEAN</t>
-  </si>
-  <si>
-    <t>LSD (10%)</t>
-  </si>
-  <si>
-    <t>CV (%)</t>
-  </si>
-  <si>
-    <t>**Highest yielding variety in test</t>
-  </si>
-  <si>
-    <t>*Yield not significantly less than the highest yielding variety in the test</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Bu/Ac</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Laddonia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="74">
   <si>
     <t>Central Region: Summary</t>
   </si>
@@ -253,19 +231,16 @@
     <t>243.6*</t>
   </si>
   <si>
-    <t>269.9**</t>
-  </si>
-  <si>
-    <t>253.9*</t>
-  </si>
-  <si>
-    <t>263.5*</t>
-  </si>
-  <si>
-    <t>258.7*</t>
-  </si>
-  <si>
-    <t>255.3*</t>
+    <t>Columbia, Missouri</t>
+  </si>
+  <si>
+    <t>Laddonia, Missouri</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -871,6 +846,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -918,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,797 +1140,1108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="40.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="10">
+        <v>248.2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
+      <c r="B8" s="10">
+        <v>243.3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="10">
-        <v>248.2</v>
+        <v>239</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="10">
-        <v>243.3</v>
+        <v>241.5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10">
-        <v>239</v>
+        <v>245.6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B12" s="10">
-        <v>241.5</v>
+        <v>249.2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="13">
-        <v>249.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="10">
-        <v>245.6</v>
+        <v>239.3</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="13">
-        <v>249.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="10">
-        <v>249.2</v>
+        <v>245.7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="13">
-        <v>248.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>239.3</v>
+        <v>242.5</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="13">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10">
-        <v>245.7</v>
+        <v>246.9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="13">
-        <v>246.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>242.5</v>
+        <v>231.9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="13">
-        <v>243.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10">
-        <v>246.9</v>
-      </c>
-      <c r="C18" s="10">
+        <v>235.8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10">
+        <v>232.5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10">
+        <v>234.3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10">
+        <v>230.9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10">
+        <v>238.1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="10">
+        <v>228.7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="10">
+        <v>214.8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="10">
+        <v>215.3</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10">
+        <v>222.8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>231.4</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="10">
+        <v>224.7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="10">
+        <v>247.3</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="10">
+        <v>231.6</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="10">
+        <v>218.1</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>225.4</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="10">
+        <v>212</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10">
+        <v>228</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10">
+        <v>229.1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="10">
+        <v>234.1</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="10">
+        <v>215.2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10">
+        <v>222.1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="10">
+        <v>211.5</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="10">
+        <v>212.1</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="10">
+        <v>196.2</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10">
+        <v>214</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="10">
+        <v>201</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="10">
+        <v>210.8</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="10">
+        <v>203</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="10">
+        <v>210.1</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="10">
+        <v>216.3</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="10">
+        <v>219.5</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="10">
+        <v>230.8</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="10">
+        <v>219.1</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="10">
+        <v>218.3</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="10">
+        <v>190.4</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="10">
         <v>237.2</v>
       </c>
-      <c r="D18" s="13">
-        <v>242.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="C64" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="10">
+        <v>241.5</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="10">
+        <v>241.4</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="10">
+        <v>236.4</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="10">
+        <v>234.7</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B76" s="10">
+        <v>240.4</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="10">
+        <v>213.8</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="10">
+        <v>228</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="10">
+        <v>240.7</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="10">
+        <v>233.3</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="10">
+        <v>226.6</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="10">
+        <v>224.6</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="10">
+        <v>219</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="10">
+        <v>236.7</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="10">
+        <v>229.1</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="10">
+        <v>234.4</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="10">
+        <v>231.8</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="10">
+        <v>225.6</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="10">
+        <v>236.5</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="10">
+        <v>224.9</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="10">
         <v>231.9</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="13">
-        <v>240.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="10">
-        <v>235.8</v>
-      </c>
-      <c r="C20" s="10">
-        <v>241.5</v>
-      </c>
-      <c r="D20" s="13">
-        <v>238.65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10">
-        <v>232.5</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="13">
-        <v>238.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="10">
-        <v>234.3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>241.4</v>
-      </c>
-      <c r="D22" s="13">
-        <v>237.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="C93" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="10">
+        <v>223.8</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="10">
+        <v>217.6</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="10">
-        <v>230.9</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="13">
-        <v>237.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="B96" s="10">
+        <v>210</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="10">
-        <v>238.1</v>
-      </c>
-      <c r="C24" s="10">
-        <v>236.4</v>
-      </c>
-      <c r="D24" s="13">
-        <v>237.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="10">
-        <v>228.7</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="13">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="10">
-        <v>214.8</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="13">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="10">
-        <v>215.3</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="13">
-        <v>233.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10">
-        <v>222.8</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="13">
-        <v>233.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="10">
-        <v>231.4</v>
-      </c>
-      <c r="C29" s="10">
-        <v>234.7</v>
-      </c>
-      <c r="D29" s="13">
-        <v>233.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="10">
-        <v>224.7</v>
-      </c>
-      <c r="C30" s="10">
-        <v>240.4</v>
-      </c>
-      <c r="D30" s="13">
-        <v>232.55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="10">
-        <v>247.3</v>
-      </c>
-      <c r="C31" s="10">
-        <v>213.8</v>
-      </c>
-      <c r="D31" s="13">
-        <v>230.55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="10">
-        <v>231.6</v>
-      </c>
-      <c r="C32" s="10">
-        <v>228</v>
-      </c>
-      <c r="D32" s="13">
-        <v>229.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="10">
-        <v>218.1</v>
-      </c>
-      <c r="C33" s="10">
-        <v>240.7</v>
-      </c>
-      <c r="D33" s="13">
-        <v>229.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="10">
-        <v>225.4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>233.3</v>
-      </c>
-      <c r="D34" s="13">
-        <v>229.35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="10">
-        <v>212</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="13">
-        <v>228.45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="10">
-        <v>228</v>
-      </c>
-      <c r="C36" s="10">
-        <v>226.6</v>
-      </c>
-      <c r="D36" s="13">
-        <v>227.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="B97" s="10">
+        <v>197.2</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="10">
+        <v>203.2</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="10">
-        <v>229.1</v>
-      </c>
-      <c r="C37" s="10">
-        <v>224.6</v>
-      </c>
-      <c r="D37" s="13">
-        <v>226.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="10">
-        <v>234.1</v>
-      </c>
-      <c r="C38" s="10">
-        <v>219</v>
-      </c>
-      <c r="D38" s="13">
-        <v>226.55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="10">
-        <v>215.2</v>
-      </c>
-      <c r="C39" s="10">
-        <v>236.7</v>
-      </c>
-      <c r="D39" s="13">
-        <v>225.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10">
-        <v>222.1</v>
-      </c>
-      <c r="C40" s="10">
-        <v>229.1</v>
-      </c>
-      <c r="D40" s="13">
-        <v>225.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="10">
-        <v>211.5</v>
-      </c>
-      <c r="C41" s="10">
-        <v>234.4</v>
-      </c>
-      <c r="D41" s="13">
-        <v>222.95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="10">
-        <v>212.1</v>
-      </c>
-      <c r="C42" s="10">
-        <v>231.8</v>
-      </c>
-      <c r="D42" s="13">
-        <v>221.95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="10">
-        <v>196.2</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="13">
-        <v>220.35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="B99" s="10">
+        <v>200.5</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="10">
-        <v>214</v>
-      </c>
-      <c r="C44" s="10">
-        <v>225.6</v>
-      </c>
-      <c r="D44" s="13">
-        <v>219.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10">
-        <v>201</v>
-      </c>
-      <c r="C45" s="10">
-        <v>236.5</v>
-      </c>
-      <c r="D45" s="13">
-        <v>218.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="10">
-        <v>210.8</v>
-      </c>
-      <c r="C46" s="10">
-        <v>224.9</v>
-      </c>
-      <c r="D46" s="13">
-        <v>217.85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="10">
-        <v>203</v>
-      </c>
-      <c r="C47" s="10">
-        <v>231.9</v>
-      </c>
-      <c r="D47" s="13">
-        <v>217.45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="10">
-        <v>210.1</v>
-      </c>
-      <c r="C48" s="10">
-        <v>223.8</v>
-      </c>
-      <c r="D48" s="13">
-        <v>216.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10">
-        <v>216.3</v>
-      </c>
-      <c r="C49" s="10">
-        <v>217.6</v>
-      </c>
-      <c r="D49" s="13">
-        <v>216.95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="10">
-        <v>219.5</v>
-      </c>
-      <c r="C50" s="10">
-        <v>210</v>
-      </c>
-      <c r="D50" s="13">
-        <v>214.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="10">
-        <v>230.8</v>
-      </c>
-      <c r="C51" s="10">
-        <v>197.2</v>
-      </c>
-      <c r="D51" s="13">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="10">
-        <v>219.1</v>
-      </c>
-      <c r="C52" s="10">
-        <v>203.2</v>
-      </c>
-      <c r="D52" s="13">
-        <v>211.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="10">
-        <v>218.3</v>
-      </c>
-      <c r="C53" s="10">
-        <v>200.5</v>
-      </c>
-      <c r="D53" s="13">
-        <v>209.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="10">
-        <v>190.4</v>
-      </c>
-      <c r="C54" s="10">
+      <c r="B100" s="10">
         <v>197.5</v>
       </c>
-      <c r="D54" s="13">
-        <v>193.95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="10">
-        <v>227.6</v>
-      </c>
-      <c r="C56" s="10">
-        <v>237.5</v>
-      </c>
-      <c r="D56" s="13">
-        <v>232.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="10">
-        <v>19.5</v>
-      </c>
-      <c r="C57" s="10">
-        <v>30.5</v>
-      </c>
-      <c r="D57" s="13">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="C58" s="10">
-        <v>9.4</v>
-      </c>
-      <c r="D58" s="13">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="10"/>
+      <c r="C100" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A7:D54">
